--- a/sample-files/dna-lab/sample_working.xlsx
+++ b/sample-files/dna-lab/sample_working.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="123">
   <si>
     <t xml:space="preserve">Sample Group Name</t>
   </si>
@@ -49,10 +49,16 @@
     <t xml:space="preserve">Sub ID</t>
   </si>
   <si>
+    <t xml:space="preserve">Container Group Name</t>
+  </si>
+  <si>
     <t xml:space="preserve">Container Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Position</t>
+    <t xml:space="preserve">Well Row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well Column</t>
   </si>
   <si>
     <t xml:space="preserve">Tube ID</t>
@@ -76,580 +82,313 @@
     <t xml:space="preserve">S</t>
   </si>
   <si>
-    <t xml:space="preserve">A01</t>
-  </si>
-  <si>
     <t xml:space="preserve">A</t>
   </si>
   <si>
     <t xml:space="preserve">D1306</t>
   </si>
   <si>
-    <t xml:space="preserve">A02</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1307</t>
   </si>
   <si>
-    <t xml:space="preserve">A03</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1308</t>
   </si>
   <si>
-    <t xml:space="preserve">A04</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1309</t>
   </si>
   <si>
-    <t xml:space="preserve">A05</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1310</t>
   </si>
   <si>
-    <t xml:space="preserve">A06</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1311</t>
   </si>
   <si>
-    <t xml:space="preserve">A07</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1312</t>
   </si>
   <si>
-    <t xml:space="preserve">A08</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1313</t>
   </si>
   <si>
-    <t xml:space="preserve">A09</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1314</t>
   </si>
   <si>
-    <t xml:space="preserve">A10</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1315</t>
   </si>
   <si>
-    <t xml:space="preserve">A11</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1316</t>
   </si>
   <si>
-    <t xml:space="preserve">A12</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1317</t>
   </si>
   <si>
-    <t xml:space="preserve">B01</t>
+    <t xml:space="preserve">B</t>
   </si>
   <si>
     <t xml:space="preserve">D1318</t>
   </si>
   <si>
-    <t xml:space="preserve">B02</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1319</t>
   </si>
   <si>
-    <t xml:space="preserve">B03</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1320</t>
   </si>
   <si>
-    <t xml:space="preserve">B04</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1321</t>
   </si>
   <si>
-    <t xml:space="preserve">B05</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1322</t>
   </si>
   <si>
-    <t xml:space="preserve">B06</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1323</t>
   </si>
   <si>
-    <t xml:space="preserve">B07</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1324</t>
   </si>
   <si>
-    <t xml:space="preserve">B08</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1325</t>
   </si>
   <si>
-    <t xml:space="preserve">B09</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1326</t>
   </si>
   <si>
-    <t xml:space="preserve">B10</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1327</t>
   </si>
   <si>
-    <t xml:space="preserve">B11</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1328</t>
   </si>
   <si>
-    <t xml:space="preserve">B12</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1329</t>
   </si>
   <si>
-    <t xml:space="preserve">C01</t>
+    <t xml:space="preserve">C</t>
   </si>
   <si>
     <t xml:space="preserve">D1330</t>
   </si>
   <si>
-    <t xml:space="preserve">C02</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1331</t>
   </si>
   <si>
-    <t xml:space="preserve">C03</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1332</t>
   </si>
   <si>
-    <t xml:space="preserve">C04</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1333</t>
   </si>
   <si>
-    <t xml:space="preserve">C05</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1334</t>
   </si>
   <si>
-    <t xml:space="preserve">C06</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1335</t>
   </si>
   <si>
-    <t xml:space="preserve">C07</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1336</t>
   </si>
   <si>
-    <t xml:space="preserve">C08</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1337</t>
   </si>
   <si>
-    <t xml:space="preserve">C09</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1338</t>
   </si>
   <si>
-    <t xml:space="preserve">C10</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1339</t>
   </si>
   <si>
-    <t xml:space="preserve">C11</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1340</t>
   </si>
   <si>
-    <t xml:space="preserve">C12</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1341</t>
   </si>
   <si>
-    <t xml:space="preserve">D01</t>
+    <t xml:space="preserve">D</t>
   </si>
   <si>
     <t xml:space="preserve">D1342</t>
   </si>
   <si>
-    <t xml:space="preserve">D02</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1343</t>
   </si>
   <si>
-    <t xml:space="preserve">D03</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1344</t>
   </si>
   <si>
-    <t xml:space="preserve">D04</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1345</t>
   </si>
   <si>
-    <t xml:space="preserve">D05</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1346</t>
   </si>
   <si>
-    <t xml:space="preserve">D06</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1347</t>
   </si>
   <si>
-    <t xml:space="preserve">D07</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1348</t>
   </si>
   <si>
-    <t xml:space="preserve">D08</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1349</t>
   </si>
   <si>
-    <t xml:space="preserve">D09</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1350</t>
   </si>
   <si>
-    <t xml:space="preserve">D10</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1351</t>
   </si>
   <si>
-    <t xml:space="preserve">D11</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1352</t>
   </si>
   <si>
-    <t xml:space="preserve">D12</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1353</t>
   </si>
   <si>
-    <t xml:space="preserve">E01</t>
+    <t xml:space="preserve">E</t>
   </si>
   <si>
     <t xml:space="preserve">D1354</t>
   </si>
   <si>
-    <t xml:space="preserve">E02</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1355</t>
   </si>
   <si>
-    <t xml:space="preserve">E03</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1356</t>
   </si>
   <si>
-    <t xml:space="preserve">E04</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1357</t>
   </si>
   <si>
-    <t xml:space="preserve">E05</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1358</t>
   </si>
   <si>
-    <t xml:space="preserve">E06</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1359</t>
   </si>
   <si>
-    <t xml:space="preserve">E07</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1360</t>
   </si>
   <si>
-    <t xml:space="preserve">E08</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1361</t>
   </si>
   <si>
-    <t xml:space="preserve">E09</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1362</t>
   </si>
   <si>
-    <t xml:space="preserve">E10</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1363</t>
   </si>
   <si>
-    <t xml:space="preserve">E11</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1364</t>
   </si>
   <si>
-    <t xml:space="preserve">E12</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1365</t>
   </si>
   <si>
-    <t xml:space="preserve">F01</t>
+    <t xml:space="preserve">F</t>
   </si>
   <si>
     <t xml:space="preserve">D1366</t>
   </si>
   <si>
-    <t xml:space="preserve">F02</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1367</t>
   </si>
   <si>
-    <t xml:space="preserve">F03</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1368</t>
   </si>
   <si>
-    <t xml:space="preserve">F04</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1369</t>
   </si>
   <si>
-    <t xml:space="preserve">F05</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1370</t>
   </si>
   <si>
-    <t xml:space="preserve">F06</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1371</t>
   </si>
   <si>
-    <t xml:space="preserve">F07</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1372</t>
   </si>
   <si>
-    <t xml:space="preserve">F08</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1373</t>
   </si>
   <si>
-    <t xml:space="preserve">F09</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1374</t>
   </si>
   <si>
-    <t xml:space="preserve">F10</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1375</t>
   </si>
   <si>
-    <t xml:space="preserve">F11</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1376</t>
   </si>
   <si>
-    <t xml:space="preserve">F12</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1377</t>
   </si>
   <si>
-    <t xml:space="preserve">G01</t>
+    <t xml:space="preserve">G</t>
   </si>
   <si>
     <t xml:space="preserve">D1378</t>
   </si>
   <si>
-    <t xml:space="preserve">G02</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1379</t>
   </si>
   <si>
-    <t xml:space="preserve">G03</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1380</t>
   </si>
   <si>
-    <t xml:space="preserve">G04</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1381</t>
   </si>
   <si>
-    <t xml:space="preserve">G05</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1382</t>
   </si>
   <si>
-    <t xml:space="preserve">G06</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1383</t>
   </si>
   <si>
-    <t xml:space="preserve">G07</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1384</t>
   </si>
   <si>
-    <t xml:space="preserve">G08</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1385</t>
   </si>
   <si>
-    <t xml:space="preserve">G09</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1386</t>
   </si>
   <si>
-    <t xml:space="preserve">G10</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1387</t>
   </si>
   <si>
-    <t xml:space="preserve">G11</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1388</t>
   </si>
   <si>
-    <t xml:space="preserve">G12</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1389</t>
   </si>
   <si>
-    <t xml:space="preserve">H01</t>
+    <t xml:space="preserve">H</t>
   </si>
   <si>
     <t xml:space="preserve">D1390</t>
   </si>
   <si>
-    <t xml:space="preserve">H02</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1391</t>
   </si>
   <si>
-    <t xml:space="preserve">H03</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1392</t>
   </si>
   <si>
-    <t xml:space="preserve">H04</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1393</t>
   </si>
   <si>
-    <t xml:space="preserve">H05</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1394</t>
   </si>
   <si>
-    <t xml:space="preserve">H06</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1395</t>
   </si>
   <si>
-    <t xml:space="preserve">H07</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1396</t>
   </si>
   <si>
-    <t xml:space="preserve">H08</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1397</t>
   </si>
   <si>
-    <t xml:space="preserve">H09</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1398</t>
   </si>
   <si>
-    <t xml:space="preserve">H10</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1399</t>
   </si>
   <si>
-    <t xml:space="preserve">H11</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H12</t>
   </si>
 </sst>
 </file>
@@ -752,10 +491,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M97"/>
+  <dimension ref="A1:O97"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+      <selection pane="topLeft" activeCell="Q22" activeCellId="0" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -768,10 +507,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="36.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="15.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="8.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -814,28 +553,34 @@
       <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>42866</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>1305</v>
@@ -843,40 +588,46 @@
       <c r="I2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="0" t="n">
+      <c r="J2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="0" t="n">
         <v>4025804270</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>19</v>
+      <c r="O2" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>42866</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>1306</v>
@@ -884,40 +635,46 @@
       <c r="I3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="J3" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="0" t="n">
+      <c r="J3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" s="0" t="n">
         <v>4025804271</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>19</v>
+      <c r="O3" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>42866</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>1307</v>
@@ -925,40 +682,46 @@
       <c r="I4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="J4" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="0" t="n">
+      <c r="J4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" s="0" t="n">
         <v>4025804272</v>
       </c>
-      <c r="M4" s="0" t="s">
-        <v>19</v>
+      <c r="O4" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>42866</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>1308</v>
@@ -966,40 +729,46 @@
       <c r="I5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="J5" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="0" t="n">
+      <c r="J5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" s="0" t="n">
         <v>4025804273</v>
       </c>
-      <c r="M5" s="0" t="s">
-        <v>19</v>
+      <c r="O5" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>42866</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>1309</v>
@@ -1007,40 +776,46 @@
       <c r="I6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="J6" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="0" t="n">
+      <c r="J6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" s="0" t="n">
         <v>4025804274</v>
       </c>
-      <c r="M6" s="0" t="s">
-        <v>19</v>
+      <c r="O6" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>42866</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>1310</v>
@@ -1048,40 +823,46 @@
       <c r="I7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="J7" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="0" t="n">
+      <c r="J7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N7" s="0" t="n">
         <v>4025804275</v>
       </c>
-      <c r="M7" s="0" t="s">
-        <v>19</v>
+      <c r="O7" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>42866</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>1311</v>
@@ -1089,40 +870,46 @@
       <c r="I8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="J8" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="0" t="n">
+      <c r="J8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="N8" s="0" t="n">
         <v>4025804276</v>
       </c>
-      <c r="M8" s="0" t="s">
-        <v>19</v>
+      <c r="O8" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>42866</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>1312</v>
@@ -1130,40 +917,46 @@
       <c r="I9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="J9" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" s="0" t="n">
+      <c r="J9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="N9" s="0" t="n">
         <v>4025804277</v>
       </c>
-      <c r="M9" s="0" t="s">
-        <v>19</v>
+      <c r="O9" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>42866</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>1313</v>
@@ -1171,40 +964,46 @@
       <c r="I10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="J10" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" s="0" t="n">
+      <c r="J10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="N10" s="0" t="n">
         <v>4025804278</v>
       </c>
-      <c r="M10" s="0" t="s">
-        <v>19</v>
+      <c r="O10" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>42866</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>1314</v>
@@ -1212,40 +1011,46 @@
       <c r="I11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="J11" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="L11" s="0" t="n">
+      <c r="J11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N11" s="0" t="n">
         <v>4025804279</v>
       </c>
-      <c r="M11" s="0" t="s">
-        <v>19</v>
+      <c r="O11" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>42866</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>1315</v>
@@ -1253,40 +1058,46 @@
       <c r="I12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="J12" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12" s="0" t="n">
+      <c r="J12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="N12" s="0" t="n">
         <v>4025804280</v>
       </c>
-      <c r="M12" s="0" t="s">
-        <v>19</v>
+      <c r="O12" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>42866</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>1316</v>
@@ -1294,40 +1105,46 @@
       <c r="I13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="J13" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K13" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="L13" s="0" t="n">
+      <c r="J13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="N13" s="0" t="n">
         <v>4025804281</v>
       </c>
-      <c r="M13" s="0" t="s">
-        <v>19</v>
+      <c r="O13" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>42866</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>1317</v>
@@ -1335,40 +1152,46 @@
       <c r="I14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="J14" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K14" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="L14" s="0" t="n">
+      <c r="J14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" s="0" t="n">
         <v>4025804282</v>
       </c>
-      <c r="M14" s="0" t="s">
-        <v>19</v>
+      <c r="O14" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>42866</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>1318</v>
@@ -1376,40 +1199,46 @@
       <c r="I15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="J15" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K15" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="L15" s="0" t="n">
+      <c r="J15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" s="0" t="n">
         <v>4025804283</v>
       </c>
-      <c r="M15" s="0" t="s">
-        <v>19</v>
+      <c r="O15" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>42866</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>1319</v>
@@ -1417,40 +1246,46 @@
       <c r="I16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="J16" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K16" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="L16" s="0" t="n">
+      <c r="J16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" s="0" t="n">
         <v>4025804284</v>
       </c>
-      <c r="M16" s="0" t="s">
-        <v>19</v>
+      <c r="O16" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>42866</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>1320</v>
@@ -1458,40 +1293,46 @@
       <c r="I17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="J17" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="L17" s="0" t="n">
+      <c r="J17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" s="0" t="n">
         <v>4025804285</v>
       </c>
-      <c r="M17" s="0" t="s">
-        <v>19</v>
+      <c r="O17" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>42866</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>1321</v>
@@ -1499,40 +1340,46 @@
       <c r="I18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="J18" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="L18" s="0" t="n">
+      <c r="J18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" s="0" t="n">
         <v>4025804286</v>
       </c>
-      <c r="M18" s="0" t="s">
-        <v>19</v>
+      <c r="O18" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>42866</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>1322</v>
@@ -1540,40 +1387,46 @@
       <c r="I19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="J19" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K19" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="L19" s="0" t="n">
+      <c r="J19" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N19" s="0" t="n">
         <v>4025804287</v>
       </c>
-      <c r="M19" s="0" t="s">
-        <v>19</v>
+      <c r="O19" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>42866</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>1323</v>
@@ -1581,40 +1434,46 @@
       <c r="I20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="J20" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K20" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="L20" s="0" t="n">
+      <c r="J20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="N20" s="0" t="n">
         <v>4025804288</v>
       </c>
-      <c r="M20" s="0" t="s">
-        <v>19</v>
+      <c r="O20" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>42866</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>1324</v>
@@ -1622,40 +1481,46 @@
       <c r="I21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="J21" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K21" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L21" s="0" t="n">
+      <c r="J21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="N21" s="0" t="n">
         <v>4025804289</v>
       </c>
-      <c r="M21" s="0" t="s">
-        <v>19</v>
+      <c r="O21" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>42866</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>1325</v>
@@ -1663,40 +1528,46 @@
       <c r="I22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="J22" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K22" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="L22" s="0" t="n">
+      <c r="J22" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="N22" s="0" t="n">
         <v>4025804290</v>
       </c>
-      <c r="M22" s="0" t="s">
-        <v>19</v>
+      <c r="O22" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>42866</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>1326</v>
@@ -1704,40 +1575,46 @@
       <c r="I23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="J23" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K23" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="L23" s="0" t="n">
+      <c r="J23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N23" s="0" t="n">
         <v>4025804291</v>
       </c>
-      <c r="M23" s="0" t="s">
-        <v>19</v>
+      <c r="O23" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>42866</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>1327</v>
@@ -1745,40 +1622,46 @@
       <c r="I24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="J24" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K24" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="L24" s="0" t="n">
+      <c r="J24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="N24" s="0" t="n">
         <v>4025804292</v>
       </c>
-      <c r="M24" s="0" t="s">
-        <v>19</v>
+      <c r="O24" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>42898</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>1328</v>
@@ -1786,40 +1669,46 @@
       <c r="I25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="J25" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K25" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="L25" s="0" t="n">
+      <c r="J25" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="N25" s="0" t="n">
         <v>4025804293</v>
       </c>
-      <c r="M25" s="0" t="s">
-        <v>19</v>
+      <c r="O25" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>42898</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>1329</v>
@@ -1827,40 +1716,46 @@
       <c r="I26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="J26" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K26" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="L26" s="0" t="n">
+      <c r="J26" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" s="0" t="n">
         <v>4025804294</v>
       </c>
-      <c r="M26" s="0" t="s">
-        <v>19</v>
+      <c r="O26" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>42898</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>1330</v>
@@ -1868,40 +1763,46 @@
       <c r="I27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="J27" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K27" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="L27" s="0" t="n">
+      <c r="J27" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" s="0" t="n">
         <v>4025804295</v>
       </c>
-      <c r="M27" s="0" t="s">
-        <v>19</v>
+      <c r="O27" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>42900</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>1331</v>
@@ -1909,40 +1810,46 @@
       <c r="I28" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="J28" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K28" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="L28" s="0" t="n">
+      <c r="J28" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" s="0" t="n">
         <v>4025804296</v>
       </c>
-      <c r="M28" s="0" t="s">
-        <v>19</v>
+      <c r="O28" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D29" s="1" t="n">
         <v>42900</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>1332</v>
@@ -1950,40 +1857,46 @@
       <c r="I29" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="J29" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K29" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="L29" s="0" t="n">
+      <c r="J29" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" s="0" t="n">
         <v>4025804297</v>
       </c>
-      <c r="M29" s="0" t="s">
-        <v>19</v>
+      <c r="O29" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>42900</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>1333</v>
@@ -1991,40 +1904,46 @@
       <c r="I30" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="J30" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K30" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="L30" s="0" t="n">
+      <c r="J30" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" s="0" t="n">
         <v>4025804298</v>
       </c>
-      <c r="M30" s="0" t="s">
-        <v>19</v>
+      <c r="O30" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>42900</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>1334</v>
@@ -2032,40 +1951,46 @@
       <c r="I31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="J31" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K31" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="L31" s="0" t="n">
+      <c r="J31" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N31" s="0" t="n">
         <v>4025804299</v>
       </c>
-      <c r="M31" s="0" t="s">
-        <v>19</v>
+      <c r="O31" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D32" s="1" t="n">
         <v>42900</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>1335</v>
@@ -2073,40 +1998,46 @@
       <c r="I32" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="J32" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K32" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="L32" s="0" t="n">
+      <c r="J32" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="N32" s="0" t="n">
         <v>4025804300</v>
       </c>
-      <c r="M32" s="0" t="s">
-        <v>19</v>
+      <c r="O32" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D33" s="1" t="n">
         <v>42900</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>1336</v>
@@ -2114,40 +2045,46 @@
       <c r="I33" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="J33" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K33" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="L33" s="0" t="n">
+      <c r="J33" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="N33" s="0" t="n">
         <v>4025804301</v>
       </c>
-      <c r="M33" s="0" t="s">
-        <v>19</v>
+      <c r="O33" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D34" s="1" t="n">
         <v>42900</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>1337</v>
@@ -2155,40 +2092,46 @@
       <c r="I34" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="J34" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K34" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="L34" s="0" t="n">
+      <c r="J34" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L34" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="N34" s="0" t="n">
         <v>4025804302</v>
       </c>
-      <c r="M34" s="0" t="s">
-        <v>19</v>
+      <c r="O34" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D35" s="1" t="n">
         <v>42900</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>1338</v>
@@ -2196,40 +2139,46 @@
       <c r="I35" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="J35" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K35" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="L35" s="0" t="n">
+      <c r="J35" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L35" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N35" s="0" t="n">
         <v>4025804303</v>
       </c>
-      <c r="M35" s="0" t="s">
-        <v>19</v>
+      <c r="O35" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>42900</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>1339</v>
@@ -2237,40 +2186,46 @@
       <c r="I36" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="J36" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K36" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="L36" s="0" t="n">
+      <c r="J36" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L36" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="N36" s="0" t="n">
         <v>4025804304</v>
       </c>
-      <c r="M36" s="0" t="s">
-        <v>19</v>
+      <c r="O36" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D37" s="1" t="n">
         <v>42900</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>1340</v>
@@ -2278,40 +2233,46 @@
       <c r="I37" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="J37" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K37" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="L37" s="0" t="n">
+      <c r="J37" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L37" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="M37" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="N37" s="0" t="n">
         <v>4025804305</v>
       </c>
-      <c r="M37" s="0" t="s">
-        <v>19</v>
+      <c r="O37" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D38" s="1" t="n">
         <v>42900</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>1341</v>
@@ -2319,40 +2280,46 @@
       <c r="I38" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="J38" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K38" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="L38" s="0" t="n">
+      <c r="J38" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="M38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" s="0" t="n">
         <v>4025804306</v>
       </c>
-      <c r="M38" s="0" t="s">
-        <v>19</v>
+      <c r="O38" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D39" s="1" t="n">
         <v>42900</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>1342</v>
@@ -2360,40 +2327,46 @@
       <c r="I39" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="J39" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K39" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="L39" s="0" t="n">
+      <c r="J39" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L39" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="M39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" s="0" t="n">
         <v>4025804307</v>
       </c>
-      <c r="M39" s="0" t="s">
-        <v>19</v>
+      <c r="O39" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D40" s="1" t="n">
         <v>42900</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>1343</v>
@@ -2401,40 +2374,46 @@
       <c r="I40" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="J40" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K40" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="L40" s="0" t="n">
+      <c r="J40" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L40" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="M40" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" s="0" t="n">
         <v>4025804308</v>
       </c>
-      <c r="M40" s="0" t="s">
-        <v>19</v>
+      <c r="O40" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D41" s="1" t="n">
         <v>42900</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>1344</v>
@@ -2442,40 +2421,46 @@
       <c r="I41" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="J41" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K41" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="L41" s="0" t="n">
+      <c r="J41" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L41" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="M41" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" s="0" t="n">
         <v>4025804309</v>
       </c>
-      <c r="M41" s="0" t="s">
-        <v>19</v>
+      <c r="O41" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D42" s="1" t="n">
         <v>42900</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>1345</v>
@@ -2483,40 +2468,46 @@
       <c r="I42" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="J42" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K42" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="L42" s="0" t="n">
+      <c r="J42" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L42" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="M42" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" s="0" t="n">
         <v>4025804310</v>
       </c>
-      <c r="M42" s="0" t="s">
-        <v>19</v>
+      <c r="O42" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D43" s="1" t="n">
         <v>42900</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>1346</v>
@@ -2524,40 +2515,46 @@
       <c r="I43" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="J43" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K43" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="L43" s="0" t="n">
+      <c r="J43" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L43" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="M43" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N43" s="0" t="n">
         <v>4025804311</v>
       </c>
-      <c r="M43" s="0" t="s">
-        <v>19</v>
+      <c r="O43" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D44" s="1" t="n">
         <v>42900</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>1347</v>
@@ -2565,40 +2562,46 @@
       <c r="I44" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="J44" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K44" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="L44" s="0" t="n">
+      <c r="J44" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L44" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="M44" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="N44" s="0" t="n">
         <v>4025804312</v>
       </c>
-      <c r="M44" s="0" t="s">
-        <v>19</v>
+      <c r="O44" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D45" s="1" t="n">
         <v>42900</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>1348</v>
@@ -2606,40 +2609,46 @@
       <c r="I45" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="J45" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K45" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="L45" s="0" t="n">
+      <c r="J45" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L45" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="M45" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="N45" s="0" t="n">
         <v>4025804313</v>
       </c>
-      <c r="M45" s="0" t="s">
-        <v>19</v>
+      <c r="O45" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D46" s="1" t="n">
         <v>42900</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>1349</v>
@@ -2647,40 +2656,46 @@
       <c r="I46" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="J46" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K46" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="L46" s="0" t="n">
+      <c r="J46" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L46" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="M46" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="N46" s="0" t="n">
         <v>4025804314</v>
       </c>
-      <c r="M46" s="0" t="s">
-        <v>19</v>
+      <c r="O46" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D47" s="1" t="n">
         <v>42900</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>1350</v>
@@ -2688,40 +2703,46 @@
       <c r="I47" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="J47" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K47" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="L47" s="0" t="n">
+      <c r="J47" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L47" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="M47" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N47" s="0" t="n">
         <v>4025804315</v>
       </c>
-      <c r="M47" s="0" t="s">
-        <v>19</v>
+      <c r="O47" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D48" s="1" t="n">
         <v>42900</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>1351</v>
@@ -2729,40 +2750,46 @@
       <c r="I48" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="J48" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K48" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="L48" s="0" t="n">
+      <c r="J48" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L48" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="M48" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="N48" s="0" t="n">
         <v>4025804316</v>
       </c>
-      <c r="M48" s="0" t="s">
-        <v>19</v>
+      <c r="O48" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D49" s="1" t="n">
         <v>42900</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>1352</v>
@@ -2770,40 +2797,46 @@
       <c r="I49" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="J49" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K49" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="L49" s="0" t="n">
+      <c r="J49" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K49" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L49" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="M49" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="N49" s="0" t="n">
         <v>4025804317</v>
       </c>
-      <c r="M49" s="0" t="s">
-        <v>19</v>
+      <c r="O49" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D50" s="1" t="n">
         <v>42900</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>1353</v>
@@ -2811,40 +2844,46 @@
       <c r="I50" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="J50" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K50" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="L50" s="0" t="n">
+      <c r="J50" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L50" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="M50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" s="0" t="n">
         <v>4025804318</v>
       </c>
-      <c r="M50" s="0" t="s">
-        <v>19</v>
+      <c r="O50" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D51" s="1" t="n">
         <v>42900</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>1354</v>
@@ -2852,40 +2891,46 @@
       <c r="I51" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="J51" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K51" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="L51" s="0" t="n">
+      <c r="J51" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L51" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="M51" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" s="0" t="n">
         <v>4025804319</v>
       </c>
-      <c r="M51" s="0" t="s">
-        <v>19</v>
+      <c r="O51" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D52" s="1" t="n">
         <v>42900</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>1355</v>
@@ -2893,40 +2938,46 @@
       <c r="I52" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="J52" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K52" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="L52" s="0" t="n">
+      <c r="J52" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K52" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L52" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="M52" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" s="0" t="n">
         <v>4025804320</v>
       </c>
-      <c r="M52" s="0" t="s">
-        <v>19</v>
+      <c r="O52" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D53" s="1" t="n">
         <v>42900</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>1356</v>
@@ -2934,40 +2985,46 @@
       <c r="I53" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="J53" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K53" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="L53" s="0" t="n">
+      <c r="J53" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K53" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L53" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="M53" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" s="0" t="n">
         <v>4025804321</v>
       </c>
-      <c r="M53" s="0" t="s">
-        <v>19</v>
+      <c r="O53" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D54" s="1" t="n">
         <v>42900</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>1357</v>
@@ -2975,40 +3032,46 @@
       <c r="I54" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="J54" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K54" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="L54" s="0" t="n">
+      <c r="J54" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K54" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L54" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="M54" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" s="0" t="n">
         <v>4025804322</v>
       </c>
-      <c r="M54" s="0" t="s">
-        <v>19</v>
+      <c r="O54" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D55" s="1" t="n">
         <v>42900</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>1358</v>
@@ -3016,40 +3079,46 @@
       <c r="I55" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="J55" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K55" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="L55" s="0" t="n">
+      <c r="J55" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K55" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L55" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="M55" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N55" s="0" t="n">
         <v>4025804323</v>
       </c>
-      <c r="M55" s="0" t="s">
-        <v>19</v>
+      <c r="O55" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D56" s="1" t="n">
         <v>42900</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H56" s="0" t="n">
         <v>1359</v>
@@ -3057,40 +3126,46 @@
       <c r="I56" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="J56" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K56" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="L56" s="0" t="n">
+      <c r="J56" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K56" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L56" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="M56" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="N56" s="0" t="n">
         <v>4025804324</v>
       </c>
-      <c r="M56" s="0" t="s">
-        <v>19</v>
+      <c r="O56" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D57" s="1" t="n">
         <v>42900</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>1360</v>
@@ -3098,40 +3173,46 @@
       <c r="I57" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="J57" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K57" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="L57" s="0" t="n">
+      <c r="J57" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K57" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L57" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="M57" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="N57" s="0" t="n">
         <v>4025804325</v>
       </c>
-      <c r="M57" s="0" t="s">
-        <v>19</v>
+      <c r="O57" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D58" s="1" t="n">
         <v>42900</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H58" s="0" t="n">
         <v>1361</v>
@@ -3139,40 +3220,46 @@
       <c r="I58" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="J58" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K58" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="L58" s="0" t="n">
+      <c r="J58" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L58" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="M58" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="N58" s="0" t="n">
         <v>4025804326</v>
       </c>
-      <c r="M58" s="0" t="s">
-        <v>19</v>
+      <c r="O58" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D59" s="1" t="n">
         <v>42900</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H59" s="0" t="n">
         <v>1362</v>
@@ -3180,40 +3267,46 @@
       <c r="I59" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="J59" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K59" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="L59" s="0" t="n">
+      <c r="J59" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K59" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L59" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="M59" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N59" s="0" t="n">
         <v>4025804327</v>
       </c>
-      <c r="M59" s="0" t="s">
-        <v>19</v>
+      <c r="O59" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D60" s="1" t="n">
         <v>42900</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H60" s="0" t="n">
         <v>1363</v>
@@ -3221,40 +3314,46 @@
       <c r="I60" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="J60" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K60" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="L60" s="0" t="n">
+      <c r="J60" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K60" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L60" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="M60" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="N60" s="0" t="n">
         <v>4025804328</v>
       </c>
-      <c r="M60" s="0" t="s">
-        <v>19</v>
+      <c r="O60" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D61" s="1" t="n">
         <v>42900</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H61" s="0" t="n">
         <v>1364</v>
@@ -3262,40 +3361,46 @@
       <c r="I61" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="J61" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K61" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="L61" s="0" t="n">
+      <c r="J61" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K61" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L61" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="M61" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="N61" s="0" t="n">
         <v>4025804329</v>
       </c>
-      <c r="M61" s="0" t="s">
-        <v>19</v>
+      <c r="O61" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D62" s="1" t="n">
         <v>42900</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H62" s="0" t="n">
         <v>1365</v>
@@ -3303,40 +3408,46 @@
       <c r="I62" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="J62" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K62" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="L62" s="0" t="n">
+      <c r="J62" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K62" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L62" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="M62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" s="0" t="n">
         <v>4025804330</v>
       </c>
-      <c r="M62" s="0" t="s">
-        <v>19</v>
+      <c r="O62" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D63" s="1" t="n">
         <v>42900</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H63" s="0" t="n">
         <v>1366</v>
@@ -3344,40 +3455,46 @@
       <c r="I63" s="0" t="n">
         <v>62</v>
       </c>
-      <c r="J63" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K63" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="L63" s="0" t="n">
+      <c r="J63" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K63" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L63" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="M63" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" s="0" t="n">
         <v>4025804331</v>
       </c>
-      <c r="M63" s="0" t="s">
-        <v>19</v>
+      <c r="O63" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D64" s="1" t="n">
         <v>42901</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H64" s="0" t="n">
         <v>1367</v>
@@ -3385,40 +3502,46 @@
       <c r="I64" s="0" t="n">
         <v>63</v>
       </c>
-      <c r="J64" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K64" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="L64" s="0" t="n">
+      <c r="J64" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K64" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L64" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="M64" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" s="0" t="n">
         <v>4025804332</v>
       </c>
-      <c r="M64" s="0" t="s">
-        <v>19</v>
+      <c r="O64" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D65" s="1" t="n">
         <v>42901</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H65" s="0" t="n">
         <v>1368</v>
@@ -3426,40 +3549,46 @@
       <c r="I65" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="J65" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K65" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="L65" s="0" t="n">
+      <c r="J65" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K65" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L65" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="M65" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" s="0" t="n">
         <v>4025804333</v>
       </c>
-      <c r="M65" s="0" t="s">
-        <v>19</v>
+      <c r="O65" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D66" s="1" t="n">
         <v>42901</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H66" s="0" t="n">
         <v>1369</v>
@@ -3467,40 +3596,46 @@
       <c r="I66" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="J66" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K66" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="L66" s="0" t="n">
+      <c r="J66" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K66" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L66" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="M66" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" s="0" t="n">
         <v>4025804334</v>
       </c>
-      <c r="M66" s="0" t="s">
-        <v>19</v>
+      <c r="O66" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>148</v>
+        <v>90</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D67" s="1" t="n">
         <v>42901</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H67" s="0" t="n">
         <v>1370</v>
@@ -3508,40 +3643,46 @@
       <c r="I67" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="J67" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K67" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="L67" s="0" t="n">
+      <c r="J67" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K67" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L67" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="M67" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N67" s="0" t="n">
         <v>4025804335</v>
       </c>
-      <c r="M67" s="0" t="s">
-        <v>19</v>
+      <c r="O67" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D68" s="1" t="n">
         <v>42901</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H68" s="0" t="n">
         <v>1371</v>
@@ -3549,40 +3690,46 @@
       <c r="I68" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="J68" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K68" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="L68" s="0" t="n">
+      <c r="J68" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K68" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L68" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="M68" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="N68" s="0" t="n">
         <v>4025804336</v>
       </c>
-      <c r="M68" s="0" t="s">
-        <v>19</v>
+      <c r="O68" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D69" s="1" t="n">
         <v>42901</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H69" s="0" t="n">
         <v>1372</v>
@@ -3590,40 +3737,46 @@
       <c r="I69" s="0" t="n">
         <v>68</v>
       </c>
-      <c r="J69" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K69" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="L69" s="0" t="n">
+      <c r="J69" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K69" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L69" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="M69" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="N69" s="0" t="n">
         <v>4025804337</v>
       </c>
-      <c r="M69" s="0" t="s">
-        <v>19</v>
+      <c r="O69" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>154</v>
+        <v>93</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D70" s="1" t="n">
         <v>42901</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H70" s="0" t="n">
         <v>1373</v>
@@ -3631,40 +3784,46 @@
       <c r="I70" s="0" t="n">
         <v>69</v>
       </c>
-      <c r="J70" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K70" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="L70" s="0" t="n">
+      <c r="J70" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K70" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L70" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="M70" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="N70" s="0" t="n">
         <v>4025804338</v>
       </c>
-      <c r="M70" s="0" t="s">
-        <v>19</v>
+      <c r="O70" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D71" s="1" t="n">
         <v>42901</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H71" s="0" t="n">
         <v>1374</v>
@@ -3672,40 +3831,46 @@
       <c r="I71" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="J71" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K71" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="L71" s="0" t="n">
+      <c r="J71" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K71" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L71" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="M71" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N71" s="0" t="n">
         <v>4025804339</v>
       </c>
-      <c r="M71" s="0" t="s">
-        <v>19</v>
+      <c r="O71" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D72" s="1" t="n">
         <v>42901</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H72" s="0" t="n">
         <v>1375</v>
@@ -3713,40 +3878,46 @@
       <c r="I72" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="J72" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K72" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="L72" s="0" t="n">
+      <c r="J72" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K72" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L72" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="M72" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="N72" s="0" t="n">
         <v>4025804340</v>
       </c>
-      <c r="M72" s="0" t="s">
-        <v>19</v>
+      <c r="O72" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D73" s="1" t="n">
         <v>42901</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H73" s="0" t="n">
         <v>1376</v>
@@ -3754,40 +3925,46 @@
       <c r="I73" s="0" t="n">
         <v>72</v>
       </c>
-      <c r="J73" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K73" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="L73" s="0" t="n">
+      <c r="J73" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K73" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L73" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="M73" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="N73" s="0" t="n">
         <v>4025804341</v>
       </c>
-      <c r="M73" s="0" t="s">
-        <v>19</v>
+      <c r="O73" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>162</v>
+        <v>97</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D74" s="1" t="n">
         <v>42901</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H74" s="0" t="n">
         <v>1377</v>
@@ -3795,40 +3972,46 @@
       <c r="I74" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="J74" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K74" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="L74" s="0" t="n">
+      <c r="J74" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K74" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L74" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="M74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" s="0" t="n">
         <v>4025804342</v>
       </c>
-      <c r="M74" s="0" t="s">
-        <v>19</v>
+      <c r="O74" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>164</v>
+        <v>99</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D75" s="1" t="n">
         <v>42901</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H75" s="0" t="n">
         <v>1378</v>
@@ -3836,40 +4019,46 @@
       <c r="I75" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="J75" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K75" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="L75" s="0" t="n">
+      <c r="J75" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K75" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L75" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="M75" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" s="0" t="n">
         <v>4025804343</v>
       </c>
-      <c r="M75" s="0" t="s">
-        <v>19</v>
+      <c r="O75" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D76" s="1" t="n">
         <v>42901</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H76" s="0" t="n">
         <v>1379</v>
@@ -3877,40 +4066,46 @@
       <c r="I76" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="J76" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K76" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="L76" s="0" t="n">
+      <c r="J76" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K76" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L76" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="M76" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" s="0" t="n">
         <v>4025804344</v>
       </c>
-      <c r="M76" s="0" t="s">
-        <v>19</v>
+      <c r="O76" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>168</v>
+        <v>101</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D77" s="1" t="n">
         <v>42901</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H77" s="0" t="n">
         <v>1380</v>
@@ -3918,40 +4113,46 @@
       <c r="I77" s="0" t="n">
         <v>76</v>
       </c>
-      <c r="J77" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K77" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="L77" s="0" t="n">
+      <c r="J77" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K77" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L77" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="M77" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" s="0" t="n">
         <v>4025804345</v>
       </c>
-      <c r="M77" s="0" t="s">
-        <v>19</v>
+      <c r="O77" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>170</v>
+        <v>102</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D78" s="1" t="n">
         <v>42901</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H78" s="0" t="n">
         <v>1381</v>
@@ -3959,40 +4160,46 @@
       <c r="I78" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="J78" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K78" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="L78" s="0" t="n">
+      <c r="J78" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K78" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L78" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="M78" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" s="0" t="n">
         <v>4025804346</v>
       </c>
-      <c r="M78" s="0" t="s">
-        <v>19</v>
+      <c r="O78" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>172</v>
+        <v>103</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D79" s="1" t="n">
         <v>42901</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H79" s="0" t="n">
         <v>1382</v>
@@ -4000,40 +4207,46 @@
       <c r="I79" s="0" t="n">
         <v>78</v>
       </c>
-      <c r="J79" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K79" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="L79" s="0" t="n">
+      <c r="J79" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K79" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L79" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="M79" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N79" s="0" t="n">
         <v>4025804347</v>
       </c>
-      <c r="M79" s="0" t="s">
-        <v>19</v>
+      <c r="O79" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>174</v>
+        <v>104</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D80" s="1" t="n">
         <v>42901</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H80" s="0" t="n">
         <v>1383</v>
@@ -4041,40 +4254,46 @@
       <c r="I80" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="J80" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K80" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="L80" s="0" t="n">
+      <c r="J80" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K80" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L80" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="M80" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="N80" s="0" t="n">
         <v>4025804348</v>
       </c>
-      <c r="M80" s="0" t="s">
-        <v>19</v>
+      <c r="O80" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>176</v>
+        <v>105</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D81" s="1" t="n">
         <v>42901</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H81" s="0" t="n">
         <v>1384</v>
@@ -4082,40 +4301,46 @@
       <c r="I81" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="J81" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K81" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="L81" s="0" t="n">
+      <c r="J81" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K81" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L81" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="M81" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="N81" s="0" t="n">
         <v>4025804349</v>
       </c>
-      <c r="M81" s="0" t="s">
-        <v>19</v>
+      <c r="O81" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D82" s="1" t="n">
         <v>42901</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H82" s="0" t="n">
         <v>1385</v>
@@ -4123,40 +4348,46 @@
       <c r="I82" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="J82" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K82" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="L82" s="0" t="n">
+      <c r="J82" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K82" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L82" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="M82" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="N82" s="0" t="n">
         <v>4025804350</v>
       </c>
-      <c r="M82" s="0" t="s">
-        <v>19</v>
+      <c r="O82" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>180</v>
+        <v>107</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D83" s="1" t="n">
         <v>42901</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H83" s="0" t="n">
         <v>1386</v>
@@ -4164,40 +4395,46 @@
       <c r="I83" s="0" t="n">
         <v>82</v>
       </c>
-      <c r="J83" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K83" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="L83" s="0" t="n">
+      <c r="J83" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K83" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L83" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="M83" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N83" s="0" t="n">
         <v>4025804351</v>
       </c>
-      <c r="M83" s="0" t="s">
-        <v>19</v>
+      <c r="O83" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D84" s="1" t="n">
         <v>42901</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H84" s="0" t="n">
         <v>1387</v>
@@ -4205,40 +4442,46 @@
       <c r="I84" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="J84" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K84" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="L84" s="0" t="n">
+      <c r="J84" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K84" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L84" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="M84" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="N84" s="0" t="n">
         <v>4025804352</v>
       </c>
-      <c r="M84" s="0" t="s">
-        <v>19</v>
+      <c r="O84" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>184</v>
+        <v>109</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D85" s="1" t="n">
         <v>42901</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H85" s="0" t="n">
         <v>1388</v>
@@ -4246,40 +4489,46 @@
       <c r="I85" s="0" t="n">
         <v>84</v>
       </c>
-      <c r="J85" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K85" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="L85" s="0" t="n">
+      <c r="J85" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K85" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L85" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="M85" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="N85" s="0" t="n">
         <v>4025804353</v>
       </c>
-      <c r="M85" s="0" t="s">
-        <v>19</v>
+      <c r="O85" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>186</v>
+        <v>110</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D86" s="1" t="n">
         <v>42901</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H86" s="0" t="n">
         <v>1389</v>
@@ -4287,40 +4536,46 @@
       <c r="I86" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="J86" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K86" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="L86" s="0" t="n">
+      <c r="J86" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K86" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L86" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="M86" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" s="0" t="n">
         <v>4025804354</v>
       </c>
-      <c r="M86" s="0" t="s">
-        <v>19</v>
+      <c r="O86" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>188</v>
+        <v>112</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D87" s="1" t="n">
         <v>42901</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H87" s="0" t="n">
         <v>1390</v>
@@ -4328,40 +4583,46 @@
       <c r="I87" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="J87" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K87" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="L87" s="0" t="n">
+      <c r="J87" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K87" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L87" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="M87" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" s="0" t="n">
         <v>4025804355</v>
       </c>
-      <c r="M87" s="0" t="s">
-        <v>19</v>
+      <c r="O87" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>190</v>
+        <v>113</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D88" s="1" t="n">
         <v>42999</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H88" s="0" t="n">
         <v>1391</v>
@@ -4369,40 +4630,46 @@
       <c r="I88" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="J88" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K88" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="L88" s="0" t="n">
+      <c r="J88" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K88" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L88" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="M88" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" s="0" t="n">
         <v>4025804356</v>
       </c>
-      <c r="M88" s="0" t="s">
-        <v>19</v>
+      <c r="O88" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>192</v>
+        <v>114</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D89" s="1" t="n">
         <v>42898</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H89" s="0" t="n">
         <v>1392</v>
@@ -4410,40 +4677,46 @@
       <c r="I89" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="J89" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K89" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="L89" s="0" t="n">
+      <c r="J89" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K89" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L89" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="M89" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" s="0" t="n">
         <v>4025804357</v>
       </c>
-      <c r="M89" s="0" t="s">
-        <v>19</v>
+      <c r="O89" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>194</v>
+        <v>115</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D90" s="1" t="n">
         <v>42999</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H90" s="0" t="n">
         <v>1393</v>
@@ -4451,40 +4724,46 @@
       <c r="I90" s="0" t="n">
         <v>89</v>
       </c>
-      <c r="J90" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K90" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="L90" s="0" t="n">
+      <c r="J90" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K90" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L90" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="M90" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" s="0" t="n">
         <v>4025804358</v>
       </c>
-      <c r="M90" s="0" t="s">
-        <v>19</v>
+      <c r="O90" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>196</v>
+        <v>116</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D91" s="1" t="n">
         <v>42999</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H91" s="0" t="n">
         <v>1394</v>
@@ -4492,40 +4771,46 @@
       <c r="I91" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="J91" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K91" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="L91" s="0" t="n">
+      <c r="J91" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K91" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L91" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="M91" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N91" s="0" t="n">
         <v>4025804359</v>
       </c>
-      <c r="M91" s="0" t="s">
-        <v>19</v>
+      <c r="O91" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>198</v>
+        <v>117</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D92" s="1" t="n">
         <v>42999</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H92" s="0" t="n">
         <v>1395</v>
@@ -4533,40 +4818,46 @@
       <c r="I92" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="J92" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K92" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="L92" s="0" t="n">
+      <c r="J92" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K92" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L92" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="M92" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="N92" s="0" t="n">
         <v>4025804360</v>
       </c>
-      <c r="M92" s="0" t="s">
-        <v>19</v>
+      <c r="O92" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>200</v>
+        <v>118</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D93" s="1" t="n">
         <v>42999</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H93" s="0" t="n">
         <v>1396</v>
@@ -4574,40 +4865,46 @@
       <c r="I93" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="J93" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K93" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="L93" s="0" t="n">
+      <c r="J93" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K93" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L93" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="M93" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="N93" s="0" t="n">
         <v>4025804361</v>
       </c>
-      <c r="M93" s="0" t="s">
-        <v>19</v>
+      <c r="O93" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>202</v>
+        <v>119</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D94" s="1" t="n">
         <v>42999</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H94" s="0" t="n">
         <v>1397</v>
@@ -4615,40 +4912,46 @@
       <c r="I94" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="J94" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K94" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="L94" s="0" t="n">
+      <c r="J94" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K94" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L94" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="M94" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="N94" s="0" t="n">
         <v>4025804362</v>
       </c>
-      <c r="M94" s="0" t="s">
-        <v>19</v>
+      <c r="O94" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>204</v>
+        <v>120</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D95" s="1" t="n">
         <v>42999</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H95" s="0" t="n">
         <v>1398</v>
@@ -4656,40 +4959,46 @@
       <c r="I95" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="J95" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K95" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="L95" s="0" t="n">
+      <c r="J95" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K95" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L95" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="M95" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N95" s="0" t="n">
         <v>4025804363</v>
       </c>
-      <c r="M95" s="0" t="s">
-        <v>19</v>
+      <c r="O95" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>206</v>
+        <v>121</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D96" s="1" t="n">
         <v>42999</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H96" s="0" t="n">
         <v>1399</v>
@@ -4697,40 +5006,46 @@
       <c r="I96" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="J96" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K96" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="L96" s="0" t="n">
+      <c r="J96" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K96" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L96" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="M96" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="N96" s="0" t="n">
         <v>4025804364</v>
       </c>
-      <c r="M96" s="0" t="s">
-        <v>19</v>
+      <c r="O96" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>208</v>
+        <v>122</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D97" s="1" t="n">
         <v>42999</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H97" s="0" t="n">
         <v>1400</v>
@@ -4738,17 +5053,23 @@
       <c r="I97" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="J97" s="0" t="n">
-        <v>3000142933</v>
-      </c>
-      <c r="K97" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="L97" s="0" t="n">
+      <c r="J97" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K97" s="0" t="n">
+        <v>3000142933</v>
+      </c>
+      <c r="L97" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="M97" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="N97" s="0" t="n">
         <v>4025804365</v>
       </c>
-      <c r="M97" s="0" t="s">
-        <v>19</v>
+      <c r="O97" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
